--- a/src/main/python/rezultatai.xlsx
+++ b/src/main/python/rezultatai.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="487">
   <si>
-    <t>Pav.</t>
-  </si>
-  <si>
-    <t>Sku</t>
+    <t>FOTO</t>
+  </si>
+  <si>
+    <t>SKU</t>
   </si>
   <si>
     <t>FF prekės ID</t>
@@ -37,6 +37,9 @@
     <t>Savikaina</t>
   </si>
   <si>
+    <t>MarkUP</t>
+  </si>
+  <si>
     <t>Valiuta</t>
   </si>
   <si>
@@ -49,6 +52,12 @@
     <t>Galutinis likutis</t>
   </si>
   <si>
+    <t>Konkurentų kiekis</t>
+  </si>
+  <si>
+    <t>Pard. proc.</t>
+  </si>
+  <si>
     <t>FF pradinė kaina</t>
   </si>
   <si>
@@ -64,15 +73,6 @@
     <t>Url</t>
   </si>
   <si>
-    <t>Konkurentų kiekis</t>
-  </si>
-  <si>
-    <t>Pard. proc.</t>
-  </si>
-  <si>
-    <t>MarkUP</t>
-  </si>
-  <si>
     <t>FRG0688746</t>
   </si>
   <si>
@@ -94,6 +94,9 @@
     <t>2.0</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>975.0</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
     <t>585.0</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>FRG518533</t>
   </si>
   <si>
@@ -424,6 +424,9 @@
     <t>17.0</t>
   </si>
   <si>
+    <t>10.53</t>
+  </si>
+  <si>
     <t>430.0</t>
   </si>
   <si>
@@ -433,9 +436,6 @@
     <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-cube-sneakers-item-15321020.aspx?storeid=10952</t>
   </si>
   <si>
-    <t>10.53</t>
-  </si>
-  <si>
     <t>FRG692392</t>
   </si>
   <si>
@@ -445,12 +445,12 @@
     <t>216.5</t>
   </si>
   <si>
+    <t>33.33</t>
+  </si>
+  <si>
     <t>540.0</t>
   </si>
   <si>
-    <t>33.33</t>
-  </si>
-  <si>
     <t>FRG693049</t>
   </si>
   <si>
@@ -562,12 +562,12 @@
     <t>236.64481</t>
   </si>
   <si>
+    <t>10.34</t>
+  </si>
+  <si>
     <t>590.0</t>
   </si>
   <si>
-    <t>10.34</t>
-  </si>
-  <si>
     <t>FRG704006</t>
   </si>
   <si>
@@ -610,12 +610,12 @@
     <t>27.0</t>
   </si>
   <si>
+    <t>3.57</t>
+  </si>
+  <si>
     <t>501.0</t>
   </si>
   <si>
-    <t>3.57</t>
-  </si>
-  <si>
     <t>FRG704655</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>172.58</t>
   </si>
   <si>
+    <t>66.67</t>
+  </si>
+  <si>
     <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-sneakers-mit-logo-print-item-14266362.aspx?storeid=9796</t>
   </si>
   <si>
-    <t>66.67</t>
-  </si>
-  <si>
     <t>FRG719159</t>
   </si>
   <si>
@@ -1303,12 +1303,12 @@
     <t>180.04556</t>
   </si>
   <si>
+    <t>20.0</t>
+  </si>
+  <si>
     <t>467.0</t>
   </si>
   <si>
-    <t>20.0</t>
-  </si>
-  <si>
     <t>FRG741213</t>
   </si>
   <si>
@@ -1411,12 +1411,12 @@
     <t>252.58</t>
   </si>
   <si>
+    <t>6.67</t>
+  </si>
+  <si>
     <t>655.0</t>
   </si>
   <si>
-    <t>6.67</t>
-  </si>
-  <si>
     <t>FRG743034</t>
   </si>
   <si>
@@ -1426,13 +1426,13 @@
     <t>216.49833</t>
   </si>
   <si>
+    <t>14.29</t>
+  </si>
+  <si>
     <t>562.0</t>
   </si>
   <si>
     <t>https://www.farfetch.com//de/shopping/men/salvatore-ferragamo-sneakers-mit-gancini-logo-item-16200364.aspx?storeid=10136</t>
-  </si>
-  <si>
-    <t>14.29</t>
   </si>
   <si>
     <t>FRG743128</t>
@@ -1904,29 +1904,29 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="2"/>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
       <c r="S2" s="2"/>
@@ -1951,30 +1951,30 @@
       <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" s="2"/>
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" t="s">
@@ -1998,30 +1998,30 @@
       <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="2"/>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>40</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
         <v>41</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
         <v>42</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" t="s">
@@ -2045,30 +2045,30 @@
       <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="2"/>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>35</v>
       </c>
-      <c r="N5" t="s">
+      <c r="Q5" t="s">
         <v>35</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="S5" s="2"/>
     </row>
@@ -2085,30 +2085,30 @@
       <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="2"/>
+      <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>53</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>54</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S6" s="2"/>
     </row>
@@ -2125,30 +2125,30 @@
       <c r="G7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="2"/>
+      <c r="J7" t="s">
         <v>51</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>52</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
       </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" t="s">
         <v>60</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S7" s="2"/>
     </row>
@@ -2165,30 +2165,30 @@
       <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="2"/>
+      <c r="J8" t="s">
         <v>51</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>35</v>
       </c>
-      <c r="N8" t="s">
+      <c r="Q8" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S8" s="2"/>
     </row>
@@ -2205,30 +2205,30 @@
       <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="2"/>
+      <c r="J9" t="s">
         <v>51</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
         <v>35</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S9" s="2"/>
     </row>
@@ -2245,30 +2245,30 @@
       <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="2"/>
+      <c r="J10" t="s">
         <v>51</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>73</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" t="s">
         <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S10" s="2"/>
     </row>
@@ -2285,30 +2285,30 @@
       <c r="G11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11" s="2"/>
+      <c r="J11" t="s">
         <v>78</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>52</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>79</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
         <v>80</v>
       </c>
-      <c r="M11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="P11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" t="s">
         <v>80</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S11" s="2"/>
     </row>
@@ -2325,30 +2325,30 @@
       <c r="G12" t="s">
         <v>83</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="2"/>
+      <c r="J12" t="s">
         <v>51</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>52</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>59</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" t="s">
         <v>84</v>
       </c>
-      <c r="M12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S12" s="2"/>
     </row>
@@ -2365,30 +2365,30 @@
       <c r="G13" t="s">
         <v>87</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="2"/>
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>52</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>88</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" t="s">
         <v>84</v>
       </c>
-      <c r="M13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" t="s">
         <v>84</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S13" s="2"/>
     </row>
@@ -2405,30 +2405,30 @@
       <c r="G14" t="s">
         <v>91</v>
       </c>
-      <c r="I14" t="s">
+      <c r="H14" s="2"/>
+      <c r="J14" t="s">
         <v>51</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>52</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>73</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" t="s">
         <v>54</v>
       </c>
-      <c r="M14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" t="s">
         <v>54</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S14" s="2"/>
     </row>
@@ -2445,30 +2445,30 @@
       <c r="G15" t="s">
         <v>94</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="2"/>
+      <c r="J15" t="s">
         <v>23</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>35</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>95</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
         <v>35</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>35</v>
       </c>
-      <c r="N15" t="s">
+      <c r="Q15" t="s">
         <v>35</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S15" s="2"/>
     </row>
@@ -2485,30 +2485,30 @@
       <c r="G16" t="s">
         <v>98</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="2"/>
+      <c r="J16" t="s">
         <v>51</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>52</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>99</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" t="s">
         <v>60</v>
       </c>
-      <c r="M16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" t="s">
         <v>60</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S16" s="2"/>
     </row>
@@ -2525,30 +2525,30 @@
       <c r="G17" t="s">
         <v>102</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="2"/>
+      <c r="J17" t="s">
         <v>51</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>52</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>99</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" t="s">
         <v>60</v>
       </c>
-      <c r="M17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" t="s">
         <v>60</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="S17" s="2"/>
     </row>
@@ -2571,38 +2571,38 @@
       <c r="G18" t="s">
         <v>106</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="I18" t="s">
         <v>107</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>51</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>52</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>108</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
         <v>109</v>
       </c>
-      <c r="M18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" t="s">
         <v>109</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="2">
-        <v>2.3</v>
       </c>
     </row>
     <row r="19" spans="2:19">
@@ -2624,41 +2624,41 @@
       <c r="G19" t="s">
         <v>114</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="I19" t="s">
         <v>107</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>51</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>52</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>115</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" s="2">
+        <v>87</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" t="s">
         <v>54</v>
       </c>
-      <c r="M19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" t="s">
         <v>54</v>
       </c>
-      <c r="O19" t="s">
+      <c r="R19" t="s">
         <v>116</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>87</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" s="2">
-        <v>2.65</v>
       </c>
     </row>
     <row r="20" spans="2:19">
@@ -2674,30 +2674,30 @@
       <c r="G20" t="s">
         <v>120</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="2"/>
+      <c r="J20" t="s">
         <v>51</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>52</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>121</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" t="s">
         <v>84</v>
       </c>
-      <c r="M20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="P20" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" t="s">
         <v>84</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S20" s="2"/>
     </row>
@@ -2714,30 +2714,30 @@
       <c r="G21" t="s">
         <v>124</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="2"/>
+      <c r="J21" t="s">
         <v>51</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>52</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>125</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" t="s">
         <v>74</v>
       </c>
-      <c r="M21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="P21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" t="s">
         <v>74</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S21" s="2"/>
     </row>
@@ -2760,41 +2760,41 @@
       <c r="G22" t="s">
         <v>128</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I22" t="s">
         <v>107</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>78</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>52</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>129</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" s="2">
+        <v>55</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" t="s">
         <v>130</v>
       </c>
-      <c r="M22" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="P22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" t="s">
         <v>130</v>
       </c>
-      <c r="O22" t="s">
+      <c r="R22" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>55</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S22" s="2">
-        <v>2.75</v>
       </c>
     </row>
     <row r="23" spans="2:19">
@@ -2816,41 +2816,41 @@
       <c r="G23" t="s">
         <v>134</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I23" t="s">
         <v>107</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>51</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>52</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>135</v>
       </c>
-      <c r="L23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="M23" s="2">
+        <v>74</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>136</v>
       </c>
       <c r="O23" t="s">
         <v>137</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="P23" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>137</v>
+      </c>
+      <c r="R23" t="s">
         <v>138</v>
       </c>
-      <c r="Q23" s="2">
-        <v>74</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="S23" s="2">
-        <v>2.7</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -2866,29 +2866,29 @@
       <c r="G24" t="s">
         <v>142</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" s="2"/>
+      <c r="J24" t="s">
         <v>51</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>52</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>25</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M24" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" t="s">
-        <v>143</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="O24" t="s">
+        <v>144</v>
+      </c>
+      <c r="P24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" t="s">
         <v>144</v>
       </c>
       <c r="S24" s="2"/>
@@ -2906,30 +2906,30 @@
       <c r="G25" t="s">
         <v>147</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" s="2"/>
+      <c r="J25" t="s">
         <v>148</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>149</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>40</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
         <v>150</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>151</v>
       </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S25" s="2"/>
     </row>
@@ -2946,30 +2946,30 @@
       <c r="G26" t="s">
         <v>155</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="2"/>
+      <c r="J26" t="s">
         <v>23</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>35</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>40</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
         <v>35</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>35</v>
       </c>
-      <c r="N26" t="s">
+      <c r="Q26" t="s">
         <v>35</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S26" s="2"/>
     </row>
@@ -2986,30 +2986,30 @@
       <c r="G27" t="s">
         <v>158</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="2"/>
+      <c r="J27" t="s">
         <v>78</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>159</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>160</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
         <v>161</v>
       </c>
-      <c r="M27" t="s">
-        <v>61</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="P27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" t="s">
         <v>161</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S27" s="2"/>
     </row>
@@ -3026,30 +3026,30 @@
       <c r="G28" t="s">
         <v>164</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="2"/>
+      <c r="J28" t="s">
         <v>23</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>24</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>46</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
         <v>152</v>
       </c>
-      <c r="M28" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="P28" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="s">
         <v>165</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S28" s="2"/>
     </row>
@@ -3066,30 +3066,30 @@
       <c r="G29" t="s">
         <v>168</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" s="2"/>
+      <c r="J29" t="s">
         <v>23</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>24</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>129</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
         <v>161</v>
       </c>
-      <c r="M29" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" t="s">
+      <c r="P29" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q29" t="s">
         <v>169</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S29" s="2"/>
     </row>
@@ -3106,30 +3106,30 @@
       <c r="G30" t="s">
         <v>172</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" s="2"/>
+      <c r="J30" t="s">
         <v>51</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>52</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>173</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O30" t="s">
         <v>74</v>
       </c>
-      <c r="M30" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" t="s">
         <v>74</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="S30" s="2"/>
     </row>
@@ -3146,30 +3146,30 @@
       <c r="G31" t="s">
         <v>177</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" s="2"/>
+      <c r="J31" t="s">
         <v>51</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>52</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>99</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O31" t="s">
         <v>84</v>
       </c>
-      <c r="M31" t="s">
-        <v>61</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q31" t="s">
         <v>84</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="S31" s="2"/>
     </row>
@@ -3186,29 +3186,29 @@
       <c r="G32" t="s">
         <v>181</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" s="2"/>
+      <c r="J32" t="s">
         <v>51</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>52</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>69</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M32" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32" t="s">
-        <v>182</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2" t="s">
+      <c r="O32" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q32" t="s">
         <v>183</v>
       </c>
       <c r="S32" s="2"/>
@@ -3226,30 +3226,30 @@
       <c r="G33" t="s">
         <v>186</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" s="2"/>
+      <c r="J33" t="s">
         <v>51</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>52</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>187</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" t="s">
         <v>188</v>
       </c>
-      <c r="M33" t="s">
-        <v>61</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="P33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" t="s">
         <v>188</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S33" s="2"/>
     </row>
@@ -3266,30 +3266,30 @@
       <c r="G34" t="s">
         <v>191</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" s="2"/>
+      <c r="J34" t="s">
         <v>78</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>159</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>192</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
         <v>193</v>
       </c>
-      <c r="M34" t="s">
-        <v>61</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="P34" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q34" t="s">
         <v>193</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S34" s="2"/>
     </row>
@@ -3306,29 +3306,29 @@
       <c r="G35" t="s">
         <v>196</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" s="2"/>
+      <c r="J35" t="s">
         <v>78</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>159</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>197</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M35" t="s">
-        <v>61</v>
-      </c>
-      <c r="N35" t="s">
-        <v>198</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2" t="s">
+      <c r="O35" t="s">
+        <v>199</v>
+      </c>
+      <c r="P35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q35" t="s">
         <v>199</v>
       </c>
       <c r="S35" s="2"/>
@@ -3346,30 +3346,30 @@
       <c r="G36" t="s">
         <v>142</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" s="2"/>
+      <c r="J36" t="s">
         <v>51</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>52</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>25</v>
       </c>
-      <c r="L36" t="s">
-        <v>143</v>
-      </c>
-      <c r="M36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N36" t="s">
-        <v>143</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>29</v>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" t="s">
+        <v>144</v>
+      </c>
+      <c r="P36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>144</v>
       </c>
       <c r="S36" s="2"/>
     </row>
@@ -3386,30 +3386,30 @@
       <c r="G37" t="s">
         <v>204</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" s="2"/>
+      <c r="J37" t="s">
         <v>23</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>24</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>40</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O37" t="s">
         <v>41</v>
       </c>
-      <c r="M37" t="s">
-        <v>27</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="P37" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="s">
         <v>42</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S37" s="2"/>
     </row>
@@ -3426,30 +3426,30 @@
       <c r="G38" t="s">
         <v>207</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="2"/>
+      <c r="J38" t="s">
         <v>34</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>24</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>208</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O38" t="s">
         <v>209</v>
       </c>
-      <c r="M38" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" t="s">
         <v>210</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S38" s="2"/>
     </row>
@@ -3466,30 +3466,30 @@
       <c r="G39" t="s">
         <v>213</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" s="2"/>
+      <c r="J39" t="s">
         <v>51</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>52</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>187</v>
       </c>
-      <c r="L39" t="s">
-        <v>143</v>
-      </c>
-      <c r="M39" t="s">
-        <v>61</v>
-      </c>
-      <c r="N39" t="s">
-        <v>143</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>29</v>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O39" t="s">
+        <v>144</v>
+      </c>
+      <c r="P39" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>144</v>
       </c>
       <c r="S39" s="2"/>
     </row>
@@ -3506,30 +3506,30 @@
       <c r="G40" t="s">
         <v>216</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" s="2"/>
+      <c r="J40" t="s">
         <v>23</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>24</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>40</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" t="s">
         <v>217</v>
       </c>
-      <c r="M40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="P40" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" t="s">
         <v>218</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S40" s="2"/>
     </row>
@@ -3546,30 +3546,30 @@
       <c r="G41" t="s">
         <v>221</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" s="2"/>
+      <c r="J41" t="s">
         <v>148</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>52</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>222</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" t="s">
         <v>223</v>
       </c>
-      <c r="M41" t="s">
-        <v>61</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="P41" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" t="s">
         <v>223</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S41" s="2"/>
     </row>
@@ -3592,41 +3592,41 @@
       <c r="G42" t="s">
         <v>226</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="I42" t="s">
         <v>107</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>23</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>159</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>25</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" s="2">
+        <v>13</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" t="s">
         <v>41</v>
       </c>
-      <c r="M42" t="s">
-        <v>61</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q42" t="s">
         <v>41</v>
       </c>
-      <c r="O42" t="s">
+      <c r="R42" t="s">
         <v>116</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="S42" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>13</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S42" s="2">
-        <v>2.34</v>
       </c>
     </row>
     <row r="43" spans="2:19">
@@ -3642,30 +3642,30 @@
       <c r="G43" t="s">
         <v>230</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" s="2"/>
+      <c r="J43" t="s">
         <v>51</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>52</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>231</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O43" t="s">
         <v>232</v>
       </c>
-      <c r="M43" t="s">
-        <v>61</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="P43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q43" t="s">
         <v>232</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S43" s="2"/>
     </row>
@@ -3682,30 +3682,30 @@
       <c r="G44" t="s">
         <v>235</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" s="2"/>
+      <c r="J44" t="s">
         <v>51</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>52</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>236</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O44" t="s">
         <v>232</v>
       </c>
-      <c r="M44" t="s">
-        <v>61</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="P44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q44" t="s">
         <v>232</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S44" s="2"/>
     </row>
@@ -3728,38 +3728,38 @@
       <c r="G45" t="s">
         <v>239</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="I45" t="s">
         <v>107</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>51</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>35</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>240</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" t="s">
         <v>35</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45" t="s">
         <v>35</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>35</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="S45" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S45" s="2">
-        <v>2.55</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -3775,30 +3775,30 @@
       <c r="G46" t="s">
         <v>244</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" s="2"/>
+      <c r="J46" t="s">
         <v>34</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>24</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>25</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O46" t="s">
         <v>245</v>
       </c>
-      <c r="M46" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="P46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" t="s">
         <v>246</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S46" s="2"/>
     </row>
@@ -3815,30 +3815,30 @@
       <c r="G47" t="s">
         <v>249</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" s="2"/>
+      <c r="J47" t="s">
         <v>34</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>24</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>25</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O47" t="s">
         <v>250</v>
       </c>
-      <c r="M47" t="s">
-        <v>27</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="P47" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="s">
         <v>251</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="S47" s="2"/>
     </row>
@@ -3861,41 +3861,41 @@
       <c r="G48" t="s">
         <v>254</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="I48" t="s">
         <v>107</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>51</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>159</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>135</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" s="2">
+        <v>63</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
         <v>188</v>
       </c>
-      <c r="M48" t="s">
-        <v>61</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="P48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q48" t="s">
         <v>188</v>
       </c>
-      <c r="O48" t="s">
+      <c r="R48" t="s">
         <v>116</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="S48" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>63</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S48" s="2">
-        <v>2.67</v>
       </c>
     </row>
     <row r="49" spans="2:19">
@@ -3911,30 +3911,30 @@
       <c r="G49" t="s">
         <v>258</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" s="2"/>
+      <c r="J49" t="s">
         <v>34</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>159</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>25</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O49" t="s">
         <v>259</v>
       </c>
-      <c r="M49" t="s">
-        <v>61</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="P49" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q49" t="s">
         <v>259</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S49" s="2"/>
     </row>
@@ -3957,41 +3957,41 @@
       <c r="G50" t="s">
         <v>262</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="I50" t="s">
         <v>107</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>23</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>35</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>40</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" s="2">
+        <v>25</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O50" t="s">
         <v>35</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="s">
         <v>35</v>
       </c>
-      <c r="N50" t="s">
+      <c r="Q50" t="s">
         <v>35</v>
       </c>
-      <c r="O50" t="s">
+      <c r="R50" t="s">
         <v>116</v>
       </c>
-      <c r="P50" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>25</v>
-      </c>
-      <c r="R50" s="2" t="s">
+      <c r="S50" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="S50" s="2">
-        <v>2.65</v>
       </c>
     </row>
     <row r="51" spans="2:19">
@@ -4007,30 +4007,30 @@
       <c r="G51" t="s">
         <v>267</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" s="2"/>
+      <c r="J51" t="s">
         <v>78</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>52</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>268</v>
       </c>
-      <c r="L51" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" t="s">
-        <v>61</v>
-      </c>
-      <c r="N51" t="s">
-        <v>143</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="s">
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>269</v>
+      </c>
+      <c r="O51" t="s">
+        <v>144</v>
+      </c>
+      <c r="P51" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>144</v>
       </c>
       <c r="S51" s="2"/>
     </row>
@@ -4047,30 +4047,30 @@
       <c r="G52" t="s">
         <v>272</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H52" s="2"/>
+      <c r="J52" t="s">
         <v>23</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>24</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>25</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O52" t="s">
         <v>273</v>
       </c>
-      <c r="M52" t="s">
-        <v>27</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" t="s">
         <v>274</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S52" s="2"/>
     </row>
@@ -4087,30 +4087,30 @@
       <c r="G53" t="s">
         <v>50</v>
       </c>
-      <c r="I53" t="s">
+      <c r="H53" s="2"/>
+      <c r="J53" t="s">
         <v>51</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>52</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>277</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="O53" t="s">
         <v>54</v>
       </c>
-      <c r="M53" t="s">
-        <v>61</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="P53" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q53" t="s">
         <v>54</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="S53" s="2"/>
     </row>
@@ -4133,38 +4133,38 @@
       <c r="G54" t="s">
         <v>281</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="I54" t="s">
         <v>107</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>34</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>52</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>40</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O54" t="s">
         <v>282</v>
       </c>
-      <c r="M54" t="s">
-        <v>61</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q54" t="s">
         <v>282</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="S54" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S54" s="2">
-        <v>2.7</v>
       </c>
     </row>
     <row r="55" spans="2:19">
@@ -4180,30 +4180,30 @@
       <c r="G55" t="s">
         <v>286</v>
       </c>
-      <c r="I55" t="s">
+      <c r="H55" s="2"/>
+      <c r="J55" t="s">
         <v>78</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>159</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>115</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" t="s">
         <v>130</v>
       </c>
-      <c r="M55" t="s">
-        <v>61</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="P55" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q55" t="s">
         <v>130</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="S55" s="2"/>
     </row>
@@ -4220,30 +4220,30 @@
       <c r="G56" t="s">
         <v>289</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" s="2"/>
+      <c r="J56" t="s">
         <v>23</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>24</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>40</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O56" t="s">
         <v>290</v>
       </c>
-      <c r="M56" t="s">
-        <v>27</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="P56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q56" t="s">
         <v>291</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S56" s="2"/>
     </row>
@@ -4260,30 +4260,30 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="I57" t="s">
+      <c r="H57" s="2"/>
+      <c r="J57" t="s">
         <v>51</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>52</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>295</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O57" t="s">
         <v>60</v>
       </c>
-      <c r="M57" t="s">
-        <v>61</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="P57" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q57" t="s">
         <v>60</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S57" s="2"/>
     </row>
@@ -4300,30 +4300,30 @@
       <c r="G58" t="s">
         <v>298</v>
       </c>
-      <c r="I58" t="s">
+      <c r="H58" s="2"/>
+      <c r="J58" t="s">
         <v>51</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>52</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>99</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O58" t="s">
         <v>299</v>
       </c>
-      <c r="M58" t="s">
-        <v>61</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="P58" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q58" t="s">
         <v>299</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S58" s="2"/>
     </row>
@@ -4340,30 +4340,30 @@
       <c r="G59" t="s">
         <v>302</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" s="2"/>
+      <c r="J59" t="s">
         <v>34</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>35</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>303</v>
       </c>
-      <c r="L59" t="s">
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" t="s">
         <v>35</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>35</v>
       </c>
-      <c r="N59" t="s">
+      <c r="Q59" t="s">
         <v>35</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S59" s="2"/>
     </row>
@@ -4380,30 +4380,30 @@
       <c r="G60" t="s">
         <v>306</v>
       </c>
-      <c r="I60" t="s">
+      <c r="H60" s="2"/>
+      <c r="J60" t="s">
         <v>23</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>52</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>307</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" t="s">
         <v>60</v>
       </c>
-      <c r="M60" t="s">
-        <v>61</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="P60" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q60" t="s">
         <v>60</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S60" s="2"/>
     </row>
@@ -4420,30 +4420,30 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" s="2"/>
+      <c r="J61" t="s">
         <v>51</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>52</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>115</v>
       </c>
-      <c r="L61" t="s">
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O61" t="s">
         <v>74</v>
       </c>
-      <c r="M61" t="s">
+      <c r="P61" t="s">
         <v>55</v>
       </c>
-      <c r="N61" t="s">
+      <c r="Q61" t="s">
         <v>74</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S61" s="2"/>
     </row>
@@ -4466,38 +4466,38 @@
       <c r="G62" t="s">
         <v>313</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="I62" t="s">
         <v>107</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>51</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>52</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>240</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O62" t="s">
         <v>54</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>55</v>
       </c>
-      <c r="N62" t="s">
+      <c r="Q62" t="s">
         <v>54</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="S62" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="Q62" s="2">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S62" s="2">
-        <v>2.55</v>
       </c>
     </row>
     <row r="63" spans="2:19">
@@ -4513,30 +4513,30 @@
       <c r="G63" t="s">
         <v>317</v>
       </c>
-      <c r="I63" t="s">
+      <c r="H63" s="2"/>
+      <c r="J63" t="s">
         <v>78</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>159</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>135</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O63" t="s">
         <v>193</v>
       </c>
-      <c r="M63" t="s">
-        <v>61</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="P63" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q63" t="s">
         <v>193</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S63" s="2"/>
     </row>
@@ -4553,30 +4553,30 @@
       <c r="G64" t="s">
         <v>320</v>
       </c>
-      <c r="I64" t="s">
+      <c r="H64" s="2"/>
+      <c r="J64" t="s">
         <v>78</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>159</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>321</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" t="s">
         <v>322</v>
       </c>
-      <c r="M64" t="s">
-        <v>61</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="P64" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q64" t="s">
         <v>322</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S64" s="2"/>
     </row>
@@ -4593,30 +4593,30 @@
       <c r="G65" t="s">
         <v>325</v>
       </c>
-      <c r="I65" t="s">
+      <c r="H65" s="2"/>
+      <c r="J65" t="s">
         <v>34</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>52</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>129</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" t="s">
         <v>250</v>
       </c>
-      <c r="M65" t="s">
-        <v>61</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="P65" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q65" t="s">
         <v>250</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S65" s="2"/>
     </row>
@@ -4633,30 +4633,30 @@
       <c r="G66" t="s">
         <v>328</v>
       </c>
-      <c r="I66" t="s">
+      <c r="H66" s="2"/>
+      <c r="J66" t="s">
         <v>51</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>52</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>329</v>
       </c>
-      <c r="L66" t="s">
-        <v>143</v>
-      </c>
-      <c r="M66" t="s">
-        <v>61</v>
-      </c>
-      <c r="N66" t="s">
-        <v>143</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2">
-        <v>0</v>
-      </c>
-      <c r="R66" s="2" t="s">
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2" t="s">
         <v>330</v>
+      </c>
+      <c r="O66" t="s">
+        <v>144</v>
+      </c>
+      <c r="P66" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>144</v>
       </c>
       <c r="S66" s="2"/>
     </row>
@@ -4679,38 +4679,38 @@
       <c r="G67" t="s">
         <v>333</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="2">
+        <v>2.47</v>
+      </c>
+      <c r="I67" t="s">
         <v>107</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>34</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>35</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>95</v>
       </c>
-      <c r="L67" t="s">
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" t="s">
         <v>35</v>
       </c>
-      <c r="M67" t="s">
+      <c r="P67" t="s">
         <v>35</v>
       </c>
-      <c r="N67" t="s">
+      <c r="Q67" t="s">
         <v>35</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="S67" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="Q67" s="2">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S67" s="2">
-        <v>2.47</v>
       </c>
     </row>
     <row r="68" spans="2:19">
@@ -4726,30 +4726,30 @@
       <c r="G68" t="s">
         <v>337</v>
       </c>
-      <c r="I68" t="s">
+      <c r="H68" s="2"/>
+      <c r="J68" t="s">
         <v>34</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>24</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>40</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O68" t="s">
         <v>338</v>
       </c>
-      <c r="M68" t="s">
-        <v>27</v>
-      </c>
-      <c r="N68" t="s">
+      <c r="P68" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q68" t="s">
         <v>339</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2">
-        <v>0</v>
-      </c>
-      <c r="R68" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S68" s="2"/>
     </row>
@@ -4772,38 +4772,38 @@
       <c r="G69" t="s">
         <v>342</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="2">
+        <v>2.64</v>
+      </c>
+      <c r="I69" t="s">
         <v>107</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>78</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>159</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>343</v>
       </c>
-      <c r="L69" t="s">
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O69" t="s">
         <v>193</v>
       </c>
-      <c r="M69" t="s">
-        <v>61</v>
-      </c>
-      <c r="N69" t="s">
+      <c r="P69" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q69" t="s">
         <v>193</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="S69" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="Q69" s="2">
-        <v>0</v>
-      </c>
-      <c r="R69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S69" s="2">
-        <v>2.64</v>
       </c>
     </row>
     <row r="70" spans="2:19">
@@ -4825,38 +4825,38 @@
       <c r="G70" t="s">
         <v>347</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="2">
+        <v>2.41</v>
+      </c>
+      <c r="I70" t="s">
         <v>107</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>34</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>159</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>25</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" t="s">
         <v>338</v>
       </c>
-      <c r="M70" t="s">
-        <v>61</v>
-      </c>
-      <c r="N70" t="s">
+      <c r="P70" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q70" t="s">
         <v>338</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="S70" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="Q70" s="2">
-        <v>0</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S70" s="2">
-        <v>2.41</v>
       </c>
     </row>
     <row r="71" spans="2:19">
@@ -4872,30 +4872,30 @@
       <c r="G71" t="s">
         <v>351</v>
       </c>
-      <c r="I71" t="s">
+      <c r="H71" s="2"/>
+      <c r="J71" t="s">
         <v>34</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>35</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>95</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" t="s">
         <v>35</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
         <v>35</v>
       </c>
-      <c r="N71" t="s">
+      <c r="Q71" t="s">
         <v>35</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2">
-        <v>0</v>
-      </c>
-      <c r="R71" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S71" s="2"/>
     </row>
@@ -4912,30 +4912,30 @@
       <c r="G72" t="s">
         <v>354</v>
       </c>
-      <c r="I72" t="s">
+      <c r="H72" s="2"/>
+      <c r="J72" t="s">
         <v>34</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>24</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>40</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O72" t="s">
         <v>355</v>
       </c>
-      <c r="M72" t="s">
-        <v>27</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="P72" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q72" t="s">
         <v>356</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2">
-        <v>0</v>
-      </c>
-      <c r="R72" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S72" s="2"/>
     </row>
@@ -4952,30 +4952,30 @@
       <c r="G73" t="s">
         <v>359</v>
       </c>
-      <c r="I73" t="s">
+      <c r="H73" s="2"/>
+      <c r="J73" t="s">
         <v>34</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>159</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>25</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" s="2">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" t="s">
         <v>360</v>
       </c>
-      <c r="M73" t="s">
-        <v>61</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q73" t="s">
         <v>360</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2">
-        <v>0</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S73" s="2"/>
     </row>
@@ -4992,30 +4992,30 @@
       <c r="G74" t="s">
         <v>363</v>
       </c>
-      <c r="I74" t="s">
+      <c r="H74" s="2"/>
+      <c r="J74" t="s">
         <v>34</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>52</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>135</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O74" t="s">
         <v>250</v>
       </c>
-      <c r="M74" t="s">
-        <v>61</v>
-      </c>
-      <c r="N74" t="s">
+      <c r="P74" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q74" t="s">
         <v>250</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2">
-        <v>0</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="S74" s="2"/>
     </row>
@@ -5032,30 +5032,30 @@
       <c r="G75" t="s">
         <v>366</v>
       </c>
-      <c r="I75" t="s">
+      <c r="H75" s="2"/>
+      <c r="J75" t="s">
         <v>34</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>159</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>367</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="O75" t="s">
         <v>250</v>
       </c>
-      <c r="M75" t="s">
-        <v>61</v>
-      </c>
-      <c r="N75" t="s">
+      <c r="P75" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q75" t="s">
         <v>250</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2">
-        <v>0</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="S75" s="2"/>
     </row>
@@ -5072,30 +5072,30 @@
       <c r="G76" t="s">
         <v>371</v>
       </c>
-      <c r="I76" t="s">
+      <c r="H76" s="2"/>
+      <c r="J76" t="s">
         <v>78</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>52</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>372</v>
       </c>
-      <c r="L76" t="s">
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="O76" t="s">
         <v>250</v>
       </c>
-      <c r="M76" t="s">
-        <v>61</v>
-      </c>
-      <c r="N76" t="s">
+      <c r="P76" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q76" t="s">
         <v>250</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2">
-        <v>0</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="S76" s="2"/>
     </row>
@@ -5112,30 +5112,30 @@
       <c r="G77" t="s">
         <v>376</v>
       </c>
-      <c r="I77" t="s">
+      <c r="H77" s="2"/>
+      <c r="J77" t="s">
         <v>34</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>24</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>208</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" s="2">
+        <v>0</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O77" t="s">
         <v>355</v>
       </c>
-      <c r="M77" t="s">
-        <v>27</v>
-      </c>
-      <c r="N77" t="s">
+      <c r="P77" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q77" t="s">
         <v>356</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2">
-        <v>0</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S77" s="2"/>
     </row>
@@ -5152,30 +5152,30 @@
       <c r="G78" t="s">
         <v>379</v>
       </c>
-      <c r="I78" t="s">
+      <c r="H78" s="2"/>
+      <c r="J78" t="s">
         <v>78</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>159</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>129</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" s="2">
+        <v>0</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O78" t="s">
         <v>380</v>
       </c>
-      <c r="M78" t="s">
-        <v>61</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q78" t="s">
         <v>380</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2">
-        <v>0</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S78" s="2"/>
     </row>
@@ -5198,38 +5198,38 @@
       <c r="G79" t="s">
         <v>313</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="I79" t="s">
         <v>107</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>51</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>52</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>240</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" s="2">
+        <v>0</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" t="s">
         <v>54</v>
       </c>
-      <c r="M79" t="s">
-        <v>61</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="P79" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q79" t="s">
         <v>54</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="S79" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>0</v>
-      </c>
-      <c r="R79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S79" s="2">
-        <v>2.55</v>
       </c>
     </row>
     <row r="80" spans="2:19">
@@ -5245,30 +5245,30 @@
       <c r="G80" t="s">
         <v>386</v>
       </c>
-      <c r="I80" t="s">
+      <c r="H80" s="2"/>
+      <c r="J80" t="s">
         <v>34</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>24</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>95</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" s="2">
+        <v>0</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O80" t="s">
         <v>387</v>
       </c>
-      <c r="M80" t="s">
-        <v>27</v>
-      </c>
-      <c r="N80" t="s">
+      <c r="P80" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q80" t="s">
         <v>388</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2">
-        <v>0</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S80" s="2"/>
     </row>
@@ -5291,41 +5291,41 @@
       <c r="G81" t="s">
         <v>391</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="I81" t="s">
         <v>107</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>34</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>159</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>208</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" s="2">
+        <v>8</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81" t="s">
         <v>392</v>
       </c>
-      <c r="M81" t="s">
-        <v>61</v>
-      </c>
-      <c r="N81" t="s">
+      <c r="P81" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q81" t="s">
         <v>392</v>
       </c>
-      <c r="O81" t="s">
+      <c r="R81" t="s">
         <v>116</v>
       </c>
-      <c r="P81" s="2" t="s">
+      <c r="S81" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>8</v>
-      </c>
-      <c r="R81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S81" s="2">
-        <v>1.93</v>
       </c>
     </row>
     <row r="82" spans="2:19">
@@ -5347,38 +5347,38 @@
       <c r="G82" t="s">
         <v>396</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="I82" t="s">
         <v>107</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>34</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>52</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>25</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" s="2">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O82" t="s">
         <v>397</v>
       </c>
-      <c r="M82" t="s">
-        <v>61</v>
-      </c>
-      <c r="N82" t="s">
+      <c r="P82" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q82" t="s">
         <v>397</v>
       </c>
-      <c r="P82" s="2" t="s">
+      <c r="S82" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>0</v>
-      </c>
-      <c r="R82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="S82" s="2">
-        <v>2.67</v>
       </c>
     </row>
     <row r="83" spans="2:19">
@@ -5394,30 +5394,30 @@
       <c r="G83" t="s">
         <v>401</v>
       </c>
-      <c r="I83" t="s">
+      <c r="H83" s="2"/>
+      <c r="J83" t="s">
         <v>34</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>52</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>40</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" t="s">
         <v>259</v>
       </c>
-      <c r="M83" t="s">
-        <v>61</v>
-      </c>
-      <c r="N83" t="s">
+      <c r="P83" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q83" t="s">
         <v>259</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2">
-        <v>0</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S83" s="2"/>
     </row>
@@ -5434,30 +5434,30 @@
       <c r="G84" t="s">
         <v>404</v>
       </c>
-      <c r="I84" t="s">
+      <c r="H84" s="2"/>
+      <c r="J84" t="s">
         <v>78</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>159</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>95</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" t="s">
         <v>405</v>
       </c>
-      <c r="M84" t="s">
+      <c r="P84" t="s">
         <v>55</v>
       </c>
-      <c r="N84" t="s">
+      <c r="Q84" t="s">
         <v>405</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2">
-        <v>0</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S84" s="2"/>
     </row>
@@ -5480,38 +5480,38 @@
       <c r="G85" t="s">
         <v>408</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="I85" t="s">
         <v>107</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>51</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>52</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>129</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" t="s">
         <v>74</v>
       </c>
-      <c r="M85" t="s">
-        <v>61</v>
-      </c>
-      <c r="N85" t="s">
+      <c r="P85" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q85" t="s">
         <v>74</v>
       </c>
-      <c r="P85" s="2" t="s">
+      <c r="S85" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>0</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S85" s="2">
-        <v>2.54</v>
       </c>
     </row>
     <row r="86" spans="2:19">
@@ -5527,30 +5527,30 @@
       <c r="G86" t="s">
         <v>412</v>
       </c>
-      <c r="I86" t="s">
+      <c r="H86" s="2"/>
+      <c r="J86" t="s">
         <v>34</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>24</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>40</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" t="s">
         <v>387</v>
       </c>
-      <c r="M86" t="s">
-        <v>27</v>
-      </c>
-      <c r="N86" t="s">
+      <c r="P86" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q86" t="s">
         <v>388</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2">
-        <v>0</v>
-      </c>
-      <c r="R86" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S86" s="2"/>
     </row>
@@ -5567,30 +5567,30 @@
       <c r="G87" t="s">
         <v>415</v>
       </c>
-      <c r="I87" t="s">
+      <c r="H87" s="2"/>
+      <c r="J87" t="s">
         <v>78</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>159</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>197</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O87" t="s">
         <v>130</v>
       </c>
-      <c r="M87" t="s">
-        <v>61</v>
-      </c>
-      <c r="N87" t="s">
+      <c r="P87" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q87" t="s">
         <v>130</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2">
-        <v>0</v>
-      </c>
-      <c r="R87" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S87" s="2"/>
     </row>
@@ -5607,30 +5607,30 @@
       <c r="G88" t="s">
         <v>418</v>
       </c>
-      <c r="I88" t="s">
+      <c r="H88" s="2"/>
+      <c r="J88" t="s">
         <v>78</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>159</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>419</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" s="2">
+        <v>0</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O88" t="s">
         <v>130</v>
       </c>
-      <c r="M88" t="s">
-        <v>61</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="P88" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q88" t="s">
         <v>130</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2">
-        <v>0</v>
-      </c>
-      <c r="R88" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S88" s="2"/>
     </row>
@@ -5647,30 +5647,30 @@
       <c r="G89" t="s">
         <v>310</v>
       </c>
-      <c r="I89" t="s">
+      <c r="H89" s="2"/>
+      <c r="J89" t="s">
         <v>51</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>52</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>115</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" s="2">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" t="s">
         <v>74</v>
       </c>
-      <c r="M89" t="s">
+      <c r="P89" t="s">
         <v>55</v>
       </c>
-      <c r="N89" t="s">
+      <c r="Q89" t="s">
         <v>74</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2">
-        <v>0</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S89" s="2"/>
     </row>
@@ -5687,30 +5687,30 @@
       <c r="G90" t="s">
         <v>424</v>
       </c>
-      <c r="I90" t="s">
+      <c r="H90" s="2"/>
+      <c r="J90" t="s">
         <v>51</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>52</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>425</v>
       </c>
-      <c r="L90" t="s">
-        <v>143</v>
-      </c>
-      <c r="M90" t="s">
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O90" t="s">
+        <v>144</v>
+      </c>
+      <c r="P90" t="s">
         <v>55</v>
       </c>
-      <c r="N90" t="s">
-        <v>143</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2">
-        <v>0</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>29</v>
+      <c r="Q90" t="s">
+        <v>144</v>
       </c>
       <c r="S90" s="2"/>
     </row>
@@ -5727,29 +5727,29 @@
       <c r="G91" t="s">
         <v>428</v>
       </c>
-      <c r="I91" t="s">
+      <c r="H91" s="2"/>
+      <c r="J91" t="s">
         <v>78</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>159</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>303</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="M91" t="s">
-        <v>61</v>
-      </c>
-      <c r="N91" t="s">
-        <v>429</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2">
-        <v>0</v>
-      </c>
-      <c r="R91" s="2" t="s">
+      <c r="O91" t="s">
+        <v>430</v>
+      </c>
+      <c r="P91" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q91" t="s">
         <v>430</v>
       </c>
       <c r="S91" s="2"/>
@@ -5767,30 +5767,30 @@
       <c r="G92" t="s">
         <v>433</v>
       </c>
-      <c r="I92" t="s">
+      <c r="H92" s="2"/>
+      <c r="J92" t="s">
         <v>78</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>159</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>268</v>
       </c>
-      <c r="L92" t="s">
-        <v>429</v>
-      </c>
-      <c r="M92" t="s">
-        <v>61</v>
-      </c>
-      <c r="N92" t="s">
-        <v>429</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2">
-        <v>0</v>
-      </c>
-      <c r="R92" s="2" t="s">
+      <c r="M92" s="2">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>269</v>
+      </c>
+      <c r="O92" t="s">
+        <v>430</v>
+      </c>
+      <c r="P92" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>430</v>
       </c>
       <c r="S92" s="2"/>
     </row>
@@ -5807,30 +5807,30 @@
       <c r="G93" t="s">
         <v>436</v>
       </c>
-      <c r="I93" t="s">
+      <c r="H93" s="2"/>
+      <c r="J93" t="s">
         <v>78</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>159</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>69</v>
       </c>
-      <c r="L93" t="s">
-        <v>429</v>
-      </c>
-      <c r="M93" t="s">
-        <v>61</v>
-      </c>
-      <c r="N93" t="s">
-        <v>429</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2">
-        <v>0</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>29</v>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O93" t="s">
+        <v>430</v>
+      </c>
+      <c r="P93" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>430</v>
       </c>
       <c r="S93" s="2"/>
     </row>
@@ -5847,30 +5847,30 @@
       <c r="G94" t="s">
         <v>439</v>
       </c>
-      <c r="I94" t="s">
+      <c r="H94" s="2"/>
+      <c r="J94" t="s">
         <v>78</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>159</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>36</v>
       </c>
-      <c r="L94" t="s">
-        <v>429</v>
-      </c>
-      <c r="M94" t="s">
-        <v>61</v>
-      </c>
-      <c r="N94" t="s">
-        <v>429</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2">
-        <v>0</v>
-      </c>
-      <c r="R94" s="2" t="s">
-        <v>29</v>
+      <c r="M94" s="2">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O94" t="s">
+        <v>430</v>
+      </c>
+      <c r="P94" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>430</v>
       </c>
       <c r="S94" s="2"/>
     </row>
@@ -5887,30 +5887,30 @@
       <c r="G95" t="s">
         <v>442</v>
       </c>
-      <c r="I95" t="s">
+      <c r="H95" s="2"/>
+      <c r="J95" t="s">
         <v>51</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>52</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>46</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" s="2">
+        <v>0</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O95" t="s">
         <v>443</v>
       </c>
-      <c r="M95" t="s">
-        <v>61</v>
-      </c>
-      <c r="N95" t="s">
+      <c r="P95" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q95" t="s">
         <v>443</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2">
-        <v>0</v>
-      </c>
-      <c r="R95" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S95" s="2"/>
     </row>
@@ -5933,41 +5933,41 @@
       <c r="G96" t="s">
         <v>446</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="I96" t="s">
         <v>107</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>78</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>159</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>222</v>
       </c>
-      <c r="L96" t="s">
-        <v>429</v>
-      </c>
-      <c r="M96" t="s">
-        <v>61</v>
-      </c>
-      <c r="N96" t="s">
-        <v>429</v>
+      <c r="M96" s="2">
+        <v>5</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="O96" t="s">
+        <v>430</v>
+      </c>
+      <c r="P96" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>430</v>
+      </c>
+      <c r="R96" t="s">
         <v>447</v>
       </c>
-      <c r="P96" s="2" t="s">
+      <c r="S96" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="Q96" s="2">
-        <v>5</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S96" s="2">
-        <v>2.75</v>
       </c>
     </row>
     <row r="97" spans="2:19">
@@ -5989,41 +5989,41 @@
       <c r="G97" t="s">
         <v>451</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="I97" t="s">
         <v>107</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>78</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>159</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>25</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" s="2">
+        <v>12</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O97" t="s">
         <v>452</v>
       </c>
-      <c r="M97" t="s">
-        <v>61</v>
-      </c>
-      <c r="N97" t="s">
+      <c r="P97" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q97" t="s">
         <v>452</v>
       </c>
-      <c r="O97" t="s">
-        <v>137</v>
-      </c>
-      <c r="P97" s="2" t="s">
+      <c r="R97" t="s">
+        <v>138</v>
+      </c>
+      <c r="S97" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="Q97" s="2">
-        <v>12</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="S97" s="2">
-        <v>1.7</v>
       </c>
     </row>
     <row r="98" spans="2:19">
@@ -6045,38 +6045,38 @@
       <c r="G98" t="s">
         <v>456</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="2">
+        <v>2.54</v>
+      </c>
+      <c r="I98" t="s">
         <v>107</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>51</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>52</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>129</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" s="2">
+        <v>0</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O98" t="s">
         <v>74</v>
       </c>
-      <c r="M98" t="s">
-        <v>61</v>
-      </c>
-      <c r="N98" t="s">
+      <c r="P98" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q98" t="s">
         <v>74</v>
       </c>
-      <c r="P98" s="2" t="s">
+      <c r="S98" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="Q98" s="2">
-        <v>0</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S98" s="2">
-        <v>2.54</v>
       </c>
     </row>
     <row r="99" spans="2:19">
@@ -6092,30 +6092,30 @@
       <c r="G99" t="s">
         <v>460</v>
       </c>
-      <c r="I99" t="s">
+      <c r="H99" s="2"/>
+      <c r="J99" t="s">
         <v>51</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>52</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>135</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" s="2">
+        <v>0</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O99" t="s">
         <v>461</v>
       </c>
-      <c r="M99" t="s">
+      <c r="P99" t="s">
         <v>55</v>
       </c>
-      <c r="N99" t="s">
+      <c r="Q99" t="s">
         <v>461</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2">
-        <v>0</v>
-      </c>
-      <c r="R99" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S99" s="2"/>
     </row>
@@ -6132,29 +6132,29 @@
       <c r="G100" t="s">
         <v>464</v>
       </c>
-      <c r="I100" t="s">
+      <c r="H100" s="2"/>
+      <c r="J100" t="s">
         <v>78</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>159</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>367</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="M100" t="s">
-        <v>61</v>
-      </c>
-      <c r="N100" t="s">
-        <v>465</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2">
-        <v>0</v>
-      </c>
-      <c r="R100" s="2" t="s">
+      <c r="O100" t="s">
+        <v>466</v>
+      </c>
+      <c r="P100" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q100" t="s">
         <v>466</v>
       </c>
       <c r="S100" s="2"/>
@@ -6178,38 +6178,38 @@
       <c r="G101" t="s">
         <v>469</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="I101" t="s">
         <v>107</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>78</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>159</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>240</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="M101" t="s">
-        <v>61</v>
-      </c>
-      <c r="N101" t="s">
-        <v>470</v>
-      </c>
-      <c r="P101" s="2" t="s">
+      <c r="O101" t="s">
         <v>471</v>
       </c>
-      <c r="Q101" s="2">
-        <v>0</v>
-      </c>
-      <c r="R101" s="2" t="s">
+      <c r="P101" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>471</v>
+      </c>
+      <c r="S101" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="S101" s="2">
-        <v>2.65</v>
       </c>
     </row>
     <row r="102" spans="2:19">
@@ -6225,30 +6225,30 @@
       <c r="G102" t="s">
         <v>475</v>
       </c>
-      <c r="I102" t="s">
+      <c r="H102" s="2"/>
+      <c r="J102" t="s">
         <v>51</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>52</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>53</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O102" t="s">
         <v>165</v>
       </c>
-      <c r="M102" t="s">
+      <c r="P102" t="s">
         <v>55</v>
       </c>
-      <c r="N102" t="s">
+      <c r="Q102" t="s">
         <v>165</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2">
-        <v>0</v>
-      </c>
-      <c r="R102" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S102" s="2"/>
     </row>
@@ -6265,30 +6265,30 @@
       <c r="G103" t="s">
         <v>478</v>
       </c>
-      <c r="I103" t="s">
+      <c r="H103" s="2"/>
+      <c r="J103" t="s">
         <v>78</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>159</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>367</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O103" t="s">
         <v>54</v>
       </c>
-      <c r="M103" t="s">
-        <v>61</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="P103" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q103" t="s">
         <v>54</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2">
-        <v>0</v>
-      </c>
-      <c r="R103" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="S103" s="2"/>
     </row>
@@ -6311,64 +6311,64 @@
       <c r="G104" t="s">
         <v>481</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="I104" t="s">
         <v>107</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>51</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>52</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>115</v>
       </c>
-      <c r="L104" t="s">
-        <v>143</v>
-      </c>
-      <c r="M104" t="s">
+      <c r="M104" s="2">
+        <v>0</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O104" t="s">
+        <v>144</v>
+      </c>
+      <c r="P104" t="s">
         <v>55</v>
       </c>
-      <c r="N104" t="s">
-        <v>143</v>
-      </c>
-      <c r="P104" s="2" t="s">
+      <c r="Q104" t="s">
+        <v>144</v>
+      </c>
+      <c r="S104" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="Q104" s="2">
-        <v>0</v>
-      </c>
-      <c r="R104" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S104" s="2">
-        <v>2.55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P18" r:id="rId1"/>
-    <hyperlink ref="P19" r:id="rId2"/>
-    <hyperlink ref="P22" r:id="rId3"/>
-    <hyperlink ref="P23" r:id="rId4"/>
-    <hyperlink ref="P42" r:id="rId5"/>
-    <hyperlink ref="P45" r:id="rId6"/>
-    <hyperlink ref="P48" r:id="rId7"/>
-    <hyperlink ref="P50" r:id="rId8"/>
-    <hyperlink ref="P54" r:id="rId9"/>
-    <hyperlink ref="P62" r:id="rId10"/>
-    <hyperlink ref="P67" r:id="rId11"/>
-    <hyperlink ref="P69" r:id="rId12"/>
-    <hyperlink ref="P70" r:id="rId13"/>
-    <hyperlink ref="P79" r:id="rId14"/>
-    <hyperlink ref="P81" r:id="rId15"/>
-    <hyperlink ref="P82" r:id="rId16"/>
-    <hyperlink ref="P85" r:id="rId17"/>
-    <hyperlink ref="P96" r:id="rId18"/>
-    <hyperlink ref="P97" r:id="rId19"/>
-    <hyperlink ref="P98" r:id="rId20"/>
-    <hyperlink ref="P101" r:id="rId21"/>
-    <hyperlink ref="P104" r:id="rId22"/>
+    <hyperlink ref="S18" r:id="rId1"/>
+    <hyperlink ref="S19" r:id="rId2"/>
+    <hyperlink ref="S22" r:id="rId3"/>
+    <hyperlink ref="S23" r:id="rId4"/>
+    <hyperlink ref="S42" r:id="rId5"/>
+    <hyperlink ref="S45" r:id="rId6"/>
+    <hyperlink ref="S48" r:id="rId7"/>
+    <hyperlink ref="S50" r:id="rId8"/>
+    <hyperlink ref="S54" r:id="rId9"/>
+    <hyperlink ref="S62" r:id="rId10"/>
+    <hyperlink ref="S67" r:id="rId11"/>
+    <hyperlink ref="S69" r:id="rId12"/>
+    <hyperlink ref="S70" r:id="rId13"/>
+    <hyperlink ref="S79" r:id="rId14"/>
+    <hyperlink ref="S81" r:id="rId15"/>
+    <hyperlink ref="S82" r:id="rId16"/>
+    <hyperlink ref="S85" r:id="rId17"/>
+    <hyperlink ref="S96" r:id="rId18"/>
+    <hyperlink ref="S97" r:id="rId19"/>
+    <hyperlink ref="S98" r:id="rId20"/>
+    <hyperlink ref="S101" r:id="rId21"/>
+    <hyperlink ref="S104" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
